--- a/examples/excel/financial_projection_korean_adult_education_example_20251104.xlsx
+++ b/examples/excel/financial_projection_korean_adult_education_example_20251104.xlsx
@@ -30,42 +30,42 @@
     <definedName name="GAPercent">'Assumptions'!$B$18</definedName>
     <definedName name="TaxRate">'Assumptions'!$B$21</definedName>
     <definedName name="DiscountRate">'Assumptions'!$B$22</definedName>
-    <definedName name="Revenue_Y0">'Revenue_Buildup'!$C$9</definedName>
-    <definedName name="Revenue_Y1">'Revenue_Buildup'!$D$9</definedName>
-    <definedName name="Revenue_Y2">'Revenue_Buildup'!$E$9</definedName>
-    <definedName name="Revenue_Y3">'Revenue_Buildup'!$F$9</definedName>
-    <definedName name="Revenue_Y4">'Revenue_Buildup'!$G$9</definedName>
-    <definedName name="Revenue_Y5">'Revenue_Buildup'!$H$9</definedName>
+    <definedName name="Revenue_Y0">'Revenue_Buildup'!$B$9</definedName>
+    <definedName name="Revenue_Y1">'Revenue_Buildup'!$C$9</definedName>
+    <definedName name="Revenue_Y2">'Revenue_Buildup'!$D$9</definedName>
+    <definedName name="Revenue_Y3">'Revenue_Buildup'!$E$9</definedName>
+    <definedName name="Revenue_Y4">'Revenue_Buildup'!$F$9</definedName>
+    <definedName name="Revenue_Y5">'Revenue_Buildup'!$G$9</definedName>
     <definedName name="COGS_Y0">'Cost_Structure'!$C$6</definedName>
     <definedName name="COGS_Y1">'Cost_Structure'!$D$6</definedName>
     <definedName name="COGS_Y2">'Cost_Structure'!$E$6</definedName>
     <definedName name="COGS_Y3">'Cost_Structure'!$F$6</definedName>
     <definedName name="COGS_Y4">'Cost_Structure'!$G$6</definedName>
     <definedName name="COGS_Y5">'Cost_Structure'!$H$6</definedName>
-    <definedName name="OPEX_Y0">'Cost_Structure'!$C$13</definedName>
-    <definedName name="OPEX_Y1">'Cost_Structure'!$D$13</definedName>
-    <definedName name="OPEX_Y2">'Cost_Structure'!$E$13</definedName>
-    <definedName name="OPEX_Y3">'Cost_Structure'!$F$13</definedName>
-    <definedName name="OPEX_Y4">'Cost_Structure'!$G$13</definedName>
-    <definedName name="OPEX_Y5">'Cost_Structure'!$H$13</definedName>
-    <definedName name="TotalCosts_Y0">'Cost_Structure'!$C$14</definedName>
-    <definedName name="TotalCosts_Y1">'Cost_Structure'!$D$14</definedName>
-    <definedName name="TotalCosts_Y2">'Cost_Structure'!$E$14</definedName>
-    <definedName name="TotalCosts_Y3">'Cost_Structure'!$F$14</definedName>
-    <definedName name="TotalCosts_Y4">'Cost_Structure'!$G$14</definedName>
-    <definedName name="TotalCosts_Y5">'Cost_Structure'!$H$14</definedName>
-    <definedName name="EBITDA_Y0">'PL_5Year'!$C$14</definedName>
-    <definedName name="EBITDA_Y1">'PL_5Year'!$D$14</definedName>
-    <definedName name="EBITDA_Y2">'PL_5Year'!$E$14</definedName>
-    <definedName name="EBITDA_Y3">'PL_5Year'!$F$14</definedName>
-    <definedName name="EBITDA_Y4">'PL_5Year'!$G$14</definedName>
-    <definedName name="EBITDA_Y5">'PL_5Year'!$H$14</definedName>
-    <definedName name="NetIncome_Y0">'PL_5Year'!$C$21</definedName>
-    <definedName name="NetIncome_Y1">'PL_5Year'!$D$21</definedName>
-    <definedName name="NetIncome_Y2">'PL_5Year'!$E$21</definedName>
-    <definedName name="NetIncome_Y3">'PL_5Year'!$F$21</definedName>
-    <definedName name="NetIncome_Y4">'PL_5Year'!$G$21</definedName>
-    <definedName name="NetIncome_Y5">'PL_5Year'!$H$21</definedName>
+    <definedName name="OPEX_Y0">'Cost_Structure'!$B$13</definedName>
+    <definedName name="OPEX_Y1">'Cost_Structure'!$C$13</definedName>
+    <definedName name="OPEX_Y2">'Cost_Structure'!$D$13</definedName>
+    <definedName name="OPEX_Y3">'Cost_Structure'!$E$13</definedName>
+    <definedName name="OPEX_Y4">'Cost_Structure'!$F$13</definedName>
+    <definedName name="OPEX_Y5">'Cost_Structure'!$G$13</definedName>
+    <definedName name="TotalCosts_Y0">'Cost_Structure'!$B$14</definedName>
+    <definedName name="TotalCosts_Y1">'Cost_Structure'!$C$14</definedName>
+    <definedName name="TotalCosts_Y2">'Cost_Structure'!$D$14</definedName>
+    <definedName name="TotalCosts_Y3">'Cost_Structure'!$E$14</definedName>
+    <definedName name="TotalCosts_Y4">'Cost_Structure'!$F$14</definedName>
+    <definedName name="TotalCosts_Y5">'Cost_Structure'!$G$14</definedName>
+    <definedName name="EBITDA_Y0">'PL_5Year'!$B$14</definedName>
+    <definedName name="EBITDA_Y1">'PL_5Year'!$C$14</definedName>
+    <definedName name="EBITDA_Y2">'PL_5Year'!$D$14</definedName>
+    <definedName name="EBITDA_Y3">'PL_5Year'!$E$14</definedName>
+    <definedName name="EBITDA_Y4">'PL_5Year'!$F$14</definedName>
+    <definedName name="EBITDA_Y5">'PL_5Year'!$G$14</definedName>
+    <definedName name="NetIncome_Y0">'PL_5Year'!$B$21</definedName>
+    <definedName name="NetIncome_Y1">'PL_5Year'!$C$21</definedName>
+    <definedName name="NetIncome_Y2">'PL_5Year'!$D$21</definedName>
+    <definedName name="NetIncome_Y3">'PL_5Year'!$E$21</definedName>
+    <definedName name="NetIncome_Y4">'PL_5Year'!$F$21</definedName>
+    <definedName name="NetIncome_Y5">'PL_5Year'!$G$21</definedName>
   </definedNames>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </workbook>
@@ -1940,19 +1940,19 @@
         <v>80000000000</v>
       </c>
       <c r="C5" s="8">
+        <f>B5*(1+$H$5)</f>
+        <v/>
+      </c>
+      <c r="D5" s="8">
         <f>C5*(1+$H$5)</f>
         <v/>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <f>D5*(1+$H$5)</f>
         <v/>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <f>E5*(1+$H$5)</f>
-        <v/>
-      </c>
-      <c r="F5" s="8">
-        <f>F5*(1+$H$5)</f>
         <v/>
       </c>
       <c r="G5" s="19" t="n">
@@ -1969,19 +1969,19 @@
         <v>30000000000</v>
       </c>
       <c r="C6" s="8">
+        <f>B6*(1+$H$6)</f>
+        <v/>
+      </c>
+      <c r="D6" s="8">
         <f>C6*(1+$H$6)</f>
         <v/>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <f>D6*(1+$H$6)</f>
         <v/>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <f>E6*(1+$H$6)</f>
-        <v/>
-      </c>
-      <c r="F6" s="8">
-        <f>F6*(1+$H$6)</f>
         <v/>
       </c>
       <c r="G6" s="19" t="n">
@@ -1998,19 +1998,19 @@
         <v>10000000000</v>
       </c>
       <c r="C7" s="8">
+        <f>B7*(1+$H$7)</f>
+        <v/>
+      </c>
+      <c r="D7" s="8">
         <f>C7*(1+$H$7)</f>
         <v/>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <f>D7*(1+$H$7)</f>
         <v/>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <f>E7*(1+$H$7)</f>
-        <v/>
-      </c>
-      <c r="F7" s="8">
-        <f>F7*(1+$H$7)</f>
         <v/>
       </c>
       <c r="G7" s="19" t="n">
@@ -2027,19 +2027,19 @@
         <v>5000000000</v>
       </c>
       <c r="C8" s="8">
+        <f>B8*(1+$H$8)</f>
+        <v/>
+      </c>
+      <c r="D8" s="8">
         <f>C8*(1+$H$8)</f>
         <v/>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <f>D8*(1+$H$8)</f>
         <v/>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <f>E8*(1+$H$8)</f>
-        <v/>
-      </c>
-      <c r="F8" s="8">
-        <f>F8*(1+$H$8)</f>
         <v/>
       </c>
       <c r="G8" s="19" t="n">
@@ -2053,27 +2053,27 @@
         </is>
       </c>
       <c r="B9" s="23">
+        <f>SUM(B5:B8)</f>
+        <v/>
+      </c>
+      <c r="C9" s="23">
         <f>SUM(C5:C8)</f>
         <v/>
       </c>
-      <c r="C9" s="23">
+      <c r="D9" s="23">
         <f>SUM(D5:D8)</f>
         <v/>
       </c>
-      <c r="D9" s="23">
+      <c r="E9" s="23">
         <f>SUM(E5:E8)</f>
         <v/>
       </c>
-      <c r="E9" s="23">
+      <c r="F9" s="23">
         <f>SUM(F5:F8)</f>
         <v/>
       </c>
-      <c r="F9" s="23">
+      <c r="G9" s="23">
         <f>SUM(G5:G8)</f>
-        <v/>
-      </c>
-      <c r="G9" s="23">
-        <f>SUM(H5:H8)</f>
         <v/>
       </c>
     </row>
@@ -2084,23 +2084,23 @@
         </is>
       </c>
       <c r="C10" s="25">
+        <f>(C9-B9)/B9</f>
+        <v/>
+      </c>
+      <c r="D10" s="25">
         <f>(D9-C9)/C9</f>
         <v/>
       </c>
-      <c r="D10" s="25">
+      <c r="E10" s="25">
         <f>(E9-D9)/D9</f>
         <v/>
       </c>
-      <c r="E10" s="25">
+      <c r="F10" s="25">
         <f>(F9-E9)/E9</f>
         <v/>
       </c>
-      <c r="F10" s="25">
+      <c r="G10" s="25">
         <f>(G9-F9)/F9</f>
-        <v/>
-      </c>
-      <c r="G10" s="25">
-        <f>(H9-G9)/G9</f>
         <v/>
       </c>
     </row>
@@ -2262,27 +2262,27 @@
         </is>
       </c>
       <c r="B6" s="8">
+        <f>B5*(1-GrossMarginTarget)</f>
+        <v/>
+      </c>
+      <c r="C6" s="8">
         <f>C5*(1-GrossMarginTarget)</f>
         <v/>
       </c>
-      <c r="C6" s="8">
+      <c r="D6" s="8">
         <f>D5*(1-GrossMarginTarget)</f>
         <v/>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <f>E5*(1-GrossMarginTarget)</f>
         <v/>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <f>F5*(1-GrossMarginTarget)</f>
         <v/>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <f>G5*(1-GrossMarginTarget)</f>
-        <v/>
-      </c>
-      <c r="G6" s="8">
-        <f>H5*(1-GrossMarginTarget)</f>
         <v/>
       </c>
       <c r="H6" s="9">
@@ -2297,27 +2297,27 @@
         </is>
       </c>
       <c r="B7" s="28">
+        <f>B5-B6</f>
+        <v/>
+      </c>
+      <c r="C7" s="28">
         <f>C5-C6</f>
         <v/>
       </c>
-      <c r="C7" s="28">
+      <c r="D7" s="28">
         <f>D5-D6</f>
         <v/>
       </c>
-      <c r="D7" s="28">
+      <c r="E7" s="28">
         <f>E5-E6</f>
         <v/>
       </c>
-      <c r="E7" s="28">
+      <c r="F7" s="28">
         <f>F5-F6</f>
         <v/>
       </c>
-      <c r="F7" s="28">
+      <c r="G7" s="28">
         <f>G5-G6</f>
-        <v/>
-      </c>
-      <c r="G7" s="28">
-        <f>H5-H6</f>
         <v/>
       </c>
       <c r="H7" s="9">
@@ -2339,27 +2339,27 @@
         </is>
       </c>
       <c r="B10" s="8">
+        <f>B5*SMPercent</f>
+        <v/>
+      </c>
+      <c r="C10" s="8">
         <f>C5*SMPercent</f>
         <v/>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <f>D5*SMPercent</f>
         <v/>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <f>E5*SMPercent</f>
         <v/>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <f>F5*SMPercent</f>
         <v/>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <f>G5*SMPercent</f>
-        <v/>
-      </c>
-      <c r="G10" s="8">
-        <f>H5*SMPercent</f>
         <v/>
       </c>
       <c r="H10" s="9">
@@ -2374,27 +2374,27 @@
         </is>
       </c>
       <c r="B11" s="8">
+        <f>B5*RDPercent</f>
+        <v/>
+      </c>
+      <c r="C11" s="8">
         <f>C5*RDPercent</f>
         <v/>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="8">
         <f>D5*RDPercent</f>
         <v/>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <f>E5*RDPercent</f>
         <v/>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <f>F5*RDPercent</f>
         <v/>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="8">
         <f>G5*RDPercent</f>
-        <v/>
-      </c>
-      <c r="G11" s="8">
-        <f>H5*RDPercent</f>
         <v/>
       </c>
       <c r="H11" s="9">
@@ -2409,27 +2409,27 @@
         </is>
       </c>
       <c r="B12" s="8">
+        <f>B5*GAPercent</f>
+        <v/>
+      </c>
+      <c r="C12" s="8">
         <f>C5*GAPercent</f>
         <v/>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <f>D5*GAPercent</f>
         <v/>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <f>E5*GAPercent</f>
         <v/>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <f>F5*GAPercent</f>
         <v/>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <f>G5*GAPercent</f>
-        <v/>
-      </c>
-      <c r="G12" s="8">
-        <f>H5*GAPercent</f>
         <v/>
       </c>
       <c r="H12" s="9">
@@ -2444,27 +2444,27 @@
         </is>
       </c>
       <c r="B13" s="28">
+        <f>SUM(B10:B12)</f>
+        <v/>
+      </c>
+      <c r="C13" s="28">
         <f>SUM(C10:C12)</f>
         <v/>
       </c>
-      <c r="C13" s="28">
+      <c r="D13" s="28">
         <f>SUM(D10:D12)</f>
         <v/>
       </c>
-      <c r="D13" s="28">
+      <c r="E13" s="28">
         <f>SUM(E10:E12)</f>
         <v/>
       </c>
-      <c r="E13" s="28">
+      <c r="F13" s="28">
         <f>SUM(F10:F12)</f>
         <v/>
       </c>
-      <c r="F13" s="28">
+      <c r="G13" s="28">
         <f>SUM(G10:G12)</f>
-        <v/>
-      </c>
-      <c r="G13" s="28">
-        <f>SUM(H10:H12)</f>
         <v/>
       </c>
       <c r="H13" s="9">
@@ -2479,27 +2479,27 @@
         </is>
       </c>
       <c r="B14" s="30">
+        <f>B6+B13</f>
+        <v/>
+      </c>
+      <c r="C14" s="30">
         <f>C6+C13</f>
         <v/>
       </c>
-      <c r="C14" s="30">
+      <c r="D14" s="30">
         <f>D6+D13</f>
         <v/>
       </c>
-      <c r="D14" s="30">
+      <c r="E14" s="30">
         <f>E6+E13</f>
         <v/>
       </c>
-      <c r="E14" s="30">
+      <c r="F14" s="30">
         <f>F6+F13</f>
         <v/>
       </c>
-      <c r="F14" s="30">
+      <c r="G14" s="30">
         <f>G6+G13</f>
-        <v/>
-      </c>
-      <c r="G14" s="30">
-        <f>H6+H13</f>
         <v/>
       </c>
     </row>
@@ -2659,19 +2659,19 @@
         </is>
       </c>
       <c r="B7" s="33">
+        <f>B5-B6</f>
+        <v/>
+      </c>
+      <c r="C7" s="33">
         <f>C5-C6</f>
         <v/>
       </c>
-      <c r="C7" s="33">
+      <c r="D7" s="33">
         <f>D5-D6</f>
         <v/>
       </c>
-      <c r="D7" s="33">
+      <c r="E7" s="33">
         <f>E5-E6</f>
-        <v/>
-      </c>
-      <c r="E7" s="33">
-        <f>F5-F6</f>
         <v/>
       </c>
     </row>
@@ -2682,19 +2682,19 @@
         </is>
       </c>
       <c r="B8" s="25">
+        <f>B7/B5</f>
+        <v/>
+      </c>
+      <c r="C8" s="25">
         <f>C7/C5</f>
         <v/>
       </c>
-      <c r="C8" s="25">
+      <c r="D8" s="25">
         <f>D7/D5</f>
         <v/>
       </c>
-      <c r="D8" s="25">
+      <c r="E8" s="25">
         <f>E7/E5</f>
-        <v/>
-      </c>
-      <c r="E8" s="25">
-        <f>F7/F5</f>
         <v/>
       </c>
     </row>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B10" s="8">
+        <f>B5*SMPercent</f>
+        <v/>
+      </c>
+      <c r="C10" s="8">
         <f>C5*SMPercent</f>
         <v/>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <f>D5*SMPercent</f>
         <v/>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <f>E5*SMPercent</f>
-        <v/>
-      </c>
-      <c r="E10" s="8">
-        <f>F5*SMPercent</f>
         <v/>
       </c>
     </row>
@@ -2735,19 +2735,19 @@
         </is>
       </c>
       <c r="B11" s="8">
+        <f>B5*RDPercent</f>
+        <v/>
+      </c>
+      <c r="C11" s="8">
         <f>C5*RDPercent</f>
         <v/>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="8">
         <f>D5*RDPercent</f>
         <v/>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <f>E5*RDPercent</f>
-        <v/>
-      </c>
-      <c r="E11" s="8">
-        <f>F5*RDPercent</f>
         <v/>
       </c>
     </row>
@@ -2758,19 +2758,19 @@
         </is>
       </c>
       <c r="B12" s="8">
+        <f>B5*GAPercent</f>
+        <v/>
+      </c>
+      <c r="C12" s="8">
         <f>C5*GAPercent</f>
         <v/>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <f>D5*GAPercent</f>
         <v/>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <f>E5*GAPercent</f>
-        <v/>
-      </c>
-      <c r="E12" s="8">
-        <f>F5*GAPercent</f>
         <v/>
       </c>
     </row>
@@ -2781,19 +2781,19 @@
         </is>
       </c>
       <c r="B13" s="35">
+        <f>B10+B11+B12</f>
+        <v/>
+      </c>
+      <c r="C13" s="35">
         <f>C10+C11+C12</f>
         <v/>
       </c>
-      <c r="C13" s="35">
+      <c r="D13" s="35">
         <f>D10+D11+D12</f>
         <v/>
       </c>
-      <c r="D13" s="35">
+      <c r="E13" s="35">
         <f>E10+E11+E12</f>
-        <v/>
-      </c>
-      <c r="E13" s="35">
-        <f>F10+F11+F12</f>
         <v/>
       </c>
     </row>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="B14" s="37">
+        <f>B7-B13</f>
+        <v/>
+      </c>
+      <c r="C14" s="37">
         <f>C7-C13</f>
         <v/>
       </c>
-      <c r="C14" s="37">
+      <c r="D14" s="37">
         <f>D7-D13</f>
         <v/>
       </c>
-      <c r="D14" s="37">
+      <c r="E14" s="37">
         <f>E7-E13</f>
-        <v/>
-      </c>
-      <c r="E14" s="37">
-        <f>F7-F13</f>
         <v/>
       </c>
     </row>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="B15" s="25">
+        <f>B14/B5</f>
+        <v/>
+      </c>
+      <c r="C15" s="25">
         <f>C14/C5</f>
         <v/>
       </c>
-      <c r="C15" s="25">
+      <c r="D15" s="25">
         <f>D14/D5</f>
         <v/>
       </c>
-      <c r="D15" s="25">
+      <c r="E15" s="25">
         <f>E14/E5</f>
-        <v/>
-      </c>
-      <c r="E15" s="25">
-        <f>F14/F5</f>
         <v/>
       </c>
     </row>
@@ -2850,19 +2850,19 @@
         </is>
       </c>
       <c r="B16" s="8">
+        <f>B5*0.02</f>
+        <v/>
+      </c>
+      <c r="C16" s="8">
         <f>C5*0.02</f>
         <v/>
       </c>
-      <c r="C16" s="8">
+      <c r="D16" s="8">
         <f>D5*0.02</f>
         <v/>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <f>E5*0.02</f>
-        <v/>
-      </c>
-      <c r="E16" s="8">
-        <f>F5*0.02</f>
         <v/>
       </c>
     </row>
@@ -2873,19 +2873,19 @@
         </is>
       </c>
       <c r="B17" s="18">
+        <f>B14-B16</f>
+        <v/>
+      </c>
+      <c r="C17" s="18">
         <f>C14-C16</f>
         <v/>
       </c>
-      <c r="C17" s="18">
+      <c r="D17" s="18">
         <f>D14-D16</f>
         <v/>
       </c>
-      <c r="D17" s="18">
+      <c r="E17" s="18">
         <f>E14-E16</f>
-        <v/>
-      </c>
-      <c r="E17" s="18">
-        <f>F14-F16</f>
         <v/>
       </c>
     </row>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B19" s="8">
+        <f>B17-B18</f>
+        <v/>
+      </c>
+      <c r="C19" s="8">
         <f>C17-C18</f>
         <v/>
       </c>
-      <c r="C19" s="8">
+      <c r="D19" s="8">
         <f>D17-D18</f>
         <v/>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <f>E17-E18</f>
-        <v/>
-      </c>
-      <c r="E19" s="8">
-        <f>F17-F18</f>
         <v/>
       </c>
     </row>
@@ -2938,19 +2938,19 @@
         </is>
       </c>
       <c r="B20" s="8">
+        <f>IF(B19&gt;0, B19*TaxRate, 0)</f>
+        <v/>
+      </c>
+      <c r="C20" s="8">
         <f>IF(C19&gt;0, C19*TaxRate, 0)</f>
         <v/>
       </c>
-      <c r="C20" s="8">
+      <c r="D20" s="8">
         <f>IF(D19&gt;0, D19*TaxRate, 0)</f>
         <v/>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <f>IF(E19&gt;0, E19*TaxRate, 0)</f>
-        <v/>
-      </c>
-      <c r="E20" s="8">
-        <f>IF(F19&gt;0, F19*TaxRate, 0)</f>
         <v/>
       </c>
     </row>
@@ -2961,19 +2961,19 @@
         </is>
       </c>
       <c r="B21" s="23">
+        <f>B19-B20</f>
+        <v/>
+      </c>
+      <c r="C21" s="23">
         <f>C19-C20</f>
         <v/>
       </c>
-      <c r="C21" s="23">
+      <c r="D21" s="23">
         <f>D19-D20</f>
         <v/>
       </c>
-      <c r="D21" s="23">
+      <c r="E21" s="23">
         <f>E19-E20</f>
-        <v/>
-      </c>
-      <c r="E21" s="23">
-        <f>F19-F20</f>
         <v/>
       </c>
     </row>
@@ -2984,19 +2984,19 @@
         </is>
       </c>
       <c r="B22" s="25">
+        <f>B21/B5</f>
+        <v/>
+      </c>
+      <c r="C22" s="25">
         <f>C21/C5</f>
         <v/>
       </c>
-      <c r="C22" s="25">
+      <c r="D22" s="25">
         <f>D21/D5</f>
         <v/>
       </c>
-      <c r="D22" s="25">
+      <c r="E22" s="25">
         <f>E21/E5</f>
-        <v/>
-      </c>
-      <c r="E22" s="25">
-        <f>F21/F5</f>
         <v/>
       </c>
     </row>
@@ -3183,27 +3183,27 @@
         </is>
       </c>
       <c r="B7" s="33">
+        <f>B5-B6</f>
+        <v/>
+      </c>
+      <c r="C7" s="33">
         <f>C5-C6</f>
         <v/>
       </c>
-      <c r="C7" s="33">
+      <c r="D7" s="33">
         <f>D5-D6</f>
         <v/>
       </c>
-      <c r="D7" s="33">
+      <c r="E7" s="33">
         <f>E5-E6</f>
         <v/>
       </c>
-      <c r="E7" s="33">
+      <c r="F7" s="33">
         <f>F5-F6</f>
         <v/>
       </c>
-      <c r="F7" s="33">
+      <c r="G7" s="33">
         <f>G5-G6</f>
-        <v/>
-      </c>
-      <c r="G7" s="33">
-        <f>H5-H6</f>
         <v/>
       </c>
     </row>
@@ -3214,27 +3214,27 @@
         </is>
       </c>
       <c r="B8" s="25">
+        <f>B7/B5</f>
+        <v/>
+      </c>
+      <c r="C8" s="25">
         <f>C7/C5</f>
         <v/>
       </c>
-      <c r="C8" s="25">
+      <c r="D8" s="25">
         <f>D7/D5</f>
         <v/>
       </c>
-      <c r="D8" s="25">
+      <c r="E8" s="25">
         <f>E7/E5</f>
         <v/>
       </c>
-      <c r="E8" s="25">
+      <c r="F8" s="25">
         <f>F7/F5</f>
         <v/>
       </c>
-      <c r="F8" s="25">
+      <c r="G8" s="25">
         <f>G7/G5</f>
-        <v/>
-      </c>
-      <c r="G8" s="25">
-        <f>H7/H5</f>
         <v/>
       </c>
     </row>
@@ -3252,27 +3252,27 @@
         </is>
       </c>
       <c r="B10" s="8">
+        <f>B5*SMPercent</f>
+        <v/>
+      </c>
+      <c r="C10" s="8">
         <f>C5*SMPercent</f>
         <v/>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <f>D5*SMPercent</f>
         <v/>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <f>E5*SMPercent</f>
         <v/>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <f>F5*SMPercent</f>
         <v/>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <f>G5*SMPercent</f>
-        <v/>
-      </c>
-      <c r="G10" s="8">
-        <f>H5*SMPercent</f>
         <v/>
       </c>
     </row>
@@ -3283,27 +3283,27 @@
         </is>
       </c>
       <c r="B11" s="8">
+        <f>B5*RDPercent</f>
+        <v/>
+      </c>
+      <c r="C11" s="8">
         <f>C5*RDPercent</f>
         <v/>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="8">
         <f>D5*RDPercent</f>
         <v/>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <f>E5*RDPercent</f>
         <v/>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <f>F5*RDPercent</f>
         <v/>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="8">
         <f>G5*RDPercent</f>
-        <v/>
-      </c>
-      <c r="G11" s="8">
-        <f>H5*RDPercent</f>
         <v/>
       </c>
     </row>
@@ -3314,27 +3314,27 @@
         </is>
       </c>
       <c r="B12" s="8">
+        <f>B5*GAPercent</f>
+        <v/>
+      </c>
+      <c r="C12" s="8">
         <f>C5*GAPercent</f>
         <v/>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <f>D5*GAPercent</f>
         <v/>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <f>E5*GAPercent</f>
         <v/>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <f>F5*GAPercent</f>
         <v/>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <f>G5*GAPercent</f>
-        <v/>
-      </c>
-      <c r="G12" s="8">
-        <f>H5*GAPercent</f>
         <v/>
       </c>
     </row>
@@ -3345,27 +3345,27 @@
         </is>
       </c>
       <c r="B13" s="35">
+        <f>B10+B11+B12</f>
+        <v/>
+      </c>
+      <c r="C13" s="35">
         <f>C10+C11+C12</f>
         <v/>
       </c>
-      <c r="C13" s="35">
+      <c r="D13" s="35">
         <f>D10+D11+D12</f>
         <v/>
       </c>
-      <c r="D13" s="35">
+      <c r="E13" s="35">
         <f>E10+E11+E12</f>
         <v/>
       </c>
-      <c r="E13" s="35">
+      <c r="F13" s="35">
         <f>F10+F11+F12</f>
         <v/>
       </c>
-      <c r="F13" s="35">
+      <c r="G13" s="35">
         <f>G10+G11+G12</f>
-        <v/>
-      </c>
-      <c r="G13" s="35">
-        <f>H10+H11+H12</f>
         <v/>
       </c>
     </row>
@@ -3376,27 +3376,27 @@
         </is>
       </c>
       <c r="B14" s="37">
+        <f>B7-B13</f>
+        <v/>
+      </c>
+      <c r="C14" s="37">
         <f>C7-C13</f>
         <v/>
       </c>
-      <c r="C14" s="37">
+      <c r="D14" s="37">
         <f>D7-D13</f>
         <v/>
       </c>
-      <c r="D14" s="37">
+      <c r="E14" s="37">
         <f>E7-E13</f>
         <v/>
       </c>
-      <c r="E14" s="37">
+      <c r="F14" s="37">
         <f>F7-F13</f>
         <v/>
       </c>
-      <c r="F14" s="37">
+      <c r="G14" s="37">
         <f>G7-G13</f>
-        <v/>
-      </c>
-      <c r="G14" s="37">
-        <f>H7-H13</f>
         <v/>
       </c>
     </row>
@@ -3407,27 +3407,27 @@
         </is>
       </c>
       <c r="B15" s="25">
+        <f>B14/B5</f>
+        <v/>
+      </c>
+      <c r="C15" s="25">
         <f>C14/C5</f>
         <v/>
       </c>
-      <c r="C15" s="25">
+      <c r="D15" s="25">
         <f>D14/D5</f>
         <v/>
       </c>
-      <c r="D15" s="25">
+      <c r="E15" s="25">
         <f>E14/E5</f>
         <v/>
       </c>
-      <c r="E15" s="25">
+      <c r="F15" s="25">
         <f>F14/F5</f>
         <v/>
       </c>
-      <c r="F15" s="25">
+      <c r="G15" s="25">
         <f>G14/G5</f>
-        <v/>
-      </c>
-      <c r="G15" s="25">
-        <f>H14/H5</f>
         <v/>
       </c>
     </row>
@@ -3438,27 +3438,27 @@
         </is>
       </c>
       <c r="B16" s="8">
+        <f>B5*0.02</f>
+        <v/>
+      </c>
+      <c r="C16" s="8">
         <f>C5*0.02</f>
         <v/>
       </c>
-      <c r="C16" s="8">
+      <c r="D16" s="8">
         <f>D5*0.02</f>
         <v/>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <f>E5*0.02</f>
         <v/>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="8">
         <f>F5*0.02</f>
         <v/>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <f>G5*0.02</f>
-        <v/>
-      </c>
-      <c r="G16" s="8">
-        <f>H5*0.02</f>
         <v/>
       </c>
     </row>
@@ -3469,27 +3469,27 @@
         </is>
       </c>
       <c r="B17" s="18">
+        <f>B14-B16</f>
+        <v/>
+      </c>
+      <c r="C17" s="18">
         <f>C14-C16</f>
         <v/>
       </c>
-      <c r="C17" s="18">
+      <c r="D17" s="18">
         <f>D14-D16</f>
         <v/>
       </c>
-      <c r="D17" s="18">
+      <c r="E17" s="18">
         <f>E14-E16</f>
         <v/>
       </c>
-      <c r="E17" s="18">
+      <c r="F17" s="18">
         <f>F14-F16</f>
         <v/>
       </c>
-      <c r="F17" s="18">
+      <c r="G17" s="18">
         <f>G14-G16</f>
-        <v/>
-      </c>
-      <c r="G17" s="18">
-        <f>H14-H16</f>
         <v/>
       </c>
     </row>
@@ -3525,27 +3525,27 @@
         </is>
       </c>
       <c r="B19" s="8">
+        <f>B17-B18</f>
+        <v/>
+      </c>
+      <c r="C19" s="8">
         <f>C17-C18</f>
         <v/>
       </c>
-      <c r="C19" s="8">
+      <c r="D19" s="8">
         <f>D17-D18</f>
         <v/>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <f>E17-E18</f>
         <v/>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <f>F17-F18</f>
         <v/>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="8">
         <f>G17-G18</f>
-        <v/>
-      </c>
-      <c r="G19" s="8">
-        <f>H17-H18</f>
         <v/>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
         </is>
       </c>
       <c r="B20" s="8">
+        <f>IF(B19&gt;0, B19*TaxRate, 0)</f>
+        <v/>
+      </c>
+      <c r="C20" s="8">
         <f>IF(C19&gt;0, C19*TaxRate, 0)</f>
         <v/>
       </c>
-      <c r="C20" s="8">
+      <c r="D20" s="8">
         <f>IF(D19&gt;0, D19*TaxRate, 0)</f>
         <v/>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <f>IF(E19&gt;0, E19*TaxRate, 0)</f>
         <v/>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="8">
         <f>IF(F19&gt;0, F19*TaxRate, 0)</f>
         <v/>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <f>IF(G19&gt;0, G19*TaxRate, 0)</f>
-        <v/>
-      </c>
-      <c r="G20" s="8">
-        <f>IF(H19&gt;0, H19*TaxRate, 0)</f>
         <v/>
       </c>
     </row>
@@ -3587,27 +3587,27 @@
         </is>
       </c>
       <c r="B21" s="23">
+        <f>B19-B20</f>
+        <v/>
+      </c>
+      <c r="C21" s="23">
         <f>C19-C20</f>
         <v/>
       </c>
-      <c r="C21" s="23">
+      <c r="D21" s="23">
         <f>D19-D20</f>
         <v/>
       </c>
-      <c r="D21" s="23">
+      <c r="E21" s="23">
         <f>E19-E20</f>
         <v/>
       </c>
-      <c r="E21" s="23">
+      <c r="F21" s="23">
         <f>F19-F20</f>
         <v/>
       </c>
-      <c r="F21" s="23">
+      <c r="G21" s="23">
         <f>G19-G20</f>
-        <v/>
-      </c>
-      <c r="G21" s="23">
-        <f>H19-H20</f>
         <v/>
       </c>
     </row>
@@ -3618,27 +3618,27 @@
         </is>
       </c>
       <c r="B22" s="25">
+        <f>B21/B5</f>
+        <v/>
+      </c>
+      <c r="C22" s="25">
         <f>C21/C5</f>
         <v/>
       </c>
-      <c r="C22" s="25">
+      <c r="D22" s="25">
         <f>D21/D5</f>
         <v/>
       </c>
-      <c r="D22" s="25">
+      <c r="E22" s="25">
         <f>E21/E5</f>
         <v/>
       </c>
-      <c r="E22" s="25">
+      <c r="F22" s="25">
         <f>F21/F5</f>
         <v/>
       </c>
-      <c r="F22" s="25">
+      <c r="G22" s="25">
         <f>G21/G5</f>
-        <v/>
-      </c>
-      <c r="G22" s="25">
-        <f>H21/H5</f>
         <v/>
       </c>
     </row>
@@ -3801,27 +3801,27 @@
         </is>
       </c>
       <c r="B7" s="28">
+        <f>B6</f>
+        <v/>
+      </c>
+      <c r="C7" s="28">
         <f>C6</f>
         <v/>
       </c>
-      <c r="C7" s="28">
+      <c r="D7" s="28">
         <f>D6</f>
         <v/>
       </c>
-      <c r="D7" s="28">
+      <c r="E7" s="28">
         <f>E6</f>
         <v/>
       </c>
-      <c r="E7" s="28">
+      <c r="F7" s="28">
         <f>F6</f>
         <v/>
       </c>
-      <c r="F7" s="28">
+      <c r="G7" s="28">
         <f>G6</f>
-        <v/>
-      </c>
-      <c r="G7" s="28">
-        <f>H6</f>
         <v/>
       </c>
     </row>
@@ -3870,27 +3870,27 @@
         </is>
       </c>
       <c r="B11" s="28">
+        <f>B10</f>
+        <v/>
+      </c>
+      <c r="C11" s="28">
         <f>C10</f>
         <v/>
       </c>
-      <c r="C11" s="28">
+      <c r="D11" s="28">
         <f>D10</f>
         <v/>
       </c>
-      <c r="D11" s="28">
+      <c r="E11" s="28">
         <f>E10</f>
         <v/>
       </c>
-      <c r="E11" s="28">
+      <c r="F11" s="28">
         <f>F10</f>
         <v/>
       </c>
-      <c r="F11" s="28">
+      <c r="G11" s="28">
         <f>G10</f>
-        <v/>
-      </c>
-      <c r="G11" s="28">
-        <f>H10</f>
         <v/>
       </c>
     </row>
@@ -3933,27 +3933,27 @@
         </is>
       </c>
       <c r="B16" s="41">
+        <f>B7+B11+B14</f>
+        <v/>
+      </c>
+      <c r="C16" s="41">
         <f>C7+C11+C14</f>
         <v/>
       </c>
-      <c r="C16" s="41">
+      <c r="D16" s="41">
         <f>D7+D11+D14</f>
         <v/>
       </c>
-      <c r="D16" s="41">
+      <c r="E16" s="41">
         <f>E7+E11+E14</f>
         <v/>
       </c>
-      <c r="E16" s="41">
+      <c r="F16" s="41">
         <f>F7+F11+F14</f>
         <v/>
       </c>
-      <c r="F16" s="41">
+      <c r="G16" s="41">
         <f>G7+G11+G14</f>
-        <v/>
-      </c>
-      <c r="G16" s="41">
-        <f>H7+H11+H14</f>
         <v/>
       </c>
     </row>
@@ -3967,23 +3967,23 @@
         <v>10000000000</v>
       </c>
       <c r="C17" s="8">
+        <f>B17+C16</f>
+        <v/>
+      </c>
+      <c r="D17" s="8">
         <f>C17+D16</f>
         <v/>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="8">
         <f>D17+E16</f>
         <v/>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="8">
         <f>E17+F16</f>
         <v/>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="8">
         <f>F17+G16</f>
-        <v/>
-      </c>
-      <c r="G17" s="8">
-        <f>G17+H16</f>
         <v/>
       </c>
     </row>
@@ -4149,23 +4149,23 @@
         </is>
       </c>
       <c r="C7" s="25">
+        <f>(C6-B6)/B6</f>
+        <v/>
+      </c>
+      <c r="D7" s="25">
         <f>(D6-C6)/C6</f>
         <v/>
       </c>
-      <c r="D7" s="25">
+      <c r="E7" s="25">
         <f>(E6-D6)/D6</f>
         <v/>
       </c>
-      <c r="E7" s="25">
+      <c r="F7" s="25">
         <f>(F6-E6)/E6</f>
         <v/>
       </c>
-      <c r="F7" s="25">
+      <c r="G7" s="25">
         <f>(G6-F6)/F6</f>
-        <v/>
-      </c>
-      <c r="G7" s="25">
-        <f>(H6-G6)/G6</f>
         <v/>
       </c>
     </row>
@@ -4176,23 +4176,23 @@
         </is>
       </c>
       <c r="C8" s="42">
-        <f>((D6/B6)^(1/1))-1</f>
+        <f>((C6/B6)^(1/1))-1</f>
         <v/>
       </c>
       <c r="D8" s="42">
-        <f>((E6/B6)^(1/2))-1</f>
+        <f>((D6/B6)^(1/2))-1</f>
         <v/>
       </c>
       <c r="E8" s="42">
-        <f>((F6/B6)^(1/3))-1</f>
+        <f>((E6/B6)^(1/3))-1</f>
         <v/>
       </c>
       <c r="F8" s="42">
-        <f>((G6/B6)^(1/4))-1</f>
+        <f>((F6/B6)^(1/4))-1</f>
         <v/>
       </c>
       <c r="G8" s="42">
-        <f>((H6/B6)^(1/5))-1</f>
+        <f>((G6/B6)^(1/5))-1</f>
         <v/>
       </c>
     </row>

--- a/examples/excel/financial_projection_korean_adult_education_example_20251104.xlsx
+++ b/examples/excel/financial_projection_korean_adult_education_example_20251104.xlsx
@@ -1955,7 +1955,11 @@
         <f>E5*(1+$H$5)</f>
         <v/>
       </c>
-      <c r="G5" s="19" t="n">
+      <c r="G5" s="8">
+        <f>F5*(1+$H$5)</f>
+        <v/>
+      </c>
+      <c r="H5" s="19" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1984,7 +1988,11 @@
         <f>E6*(1+$H$6)</f>
         <v/>
       </c>
-      <c r="G6" s="19" t="n">
+      <c r="G6" s="8">
+        <f>F6*(1+$H$6)</f>
+        <v/>
+      </c>
+      <c r="H6" s="19" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2013,7 +2021,11 @@
         <f>E7*(1+$H$7)</f>
         <v/>
       </c>
-      <c r="G7" s="19" t="n">
+      <c r="G7" s="8">
+        <f>F7*(1+$H$7)</f>
+        <v/>
+      </c>
+      <c r="H7" s="19" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2042,7 +2054,11 @@
         <f>E8*(1+$H$8)</f>
         <v/>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="8">
+        <f>F8*(1+$H$8)</f>
+        <v/>
+      </c>
+      <c r="H8" s="19" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/examples/excel/financial_projection_korean_adult_education_example_20251104.xlsx
+++ b/examples/excel/financial_projection_korean_adult_education_example_20251104.xlsx
@@ -1933,7 +1933,7 @@
     <row r="5">
       <c r="A5" s="20" t="inlineStr">
         <is>
-          <t>B2C (개인 학습자)</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="B5" s="18" t="n">
@@ -1966,7 +1966,7 @@
     <row r="6">
       <c r="A6" s="20" t="inlineStr">
         <is>
-          <t>B2B (기업 교육)</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="B6" s="18" t="n">
@@ -1999,7 +1999,7 @@
     <row r="7">
       <c r="A7" s="20" t="inlineStr">
         <is>
-          <t>B2G (정부 사업)</t>
+          <t>B2G</t>
         </is>
       </c>
       <c r="B7" s="18" t="n">
@@ -2032,7 +2032,7 @@
     <row r="8">
       <c r="A8" s="20" t="inlineStr">
         <is>
-          <t>Global (해외)</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B8" s="18" t="n">

--- a/examples/excel/financial_projection_korean_adult_education_example_20251104.xlsx
+++ b/examples/excel/financial_projection_korean_adult_education_example_20251104.xlsx
@@ -30,6 +30,10 @@
     <definedName name="GAPercent">'Assumptions'!$B$18</definedName>
     <definedName name="TaxRate">'Assumptions'!$B$21</definedName>
     <definedName name="DiscountRate">'Assumptions'!$B$22</definedName>
+    <definedName name="Rev_Segment1_Y0">'Revenue_Buildup'!$B$5</definedName>
+    <definedName name="Rev_Segment2_Y0">'Revenue_Buildup'!$B$6</definedName>
+    <definedName name="Rev_Segment3_Y0">'Revenue_Buildup'!$B$7</definedName>
+    <definedName name="Rev_Segment4_Y0">'Revenue_Buildup'!$B$8</definedName>
     <definedName name="Revenue_Y0">'Revenue_Buildup'!$B$9</definedName>
     <definedName name="Revenue_Y1">'Revenue_Buildup'!$C$9</definedName>
     <definedName name="Revenue_Y2">'Revenue_Buildup'!$D$9</definedName>
@@ -2069,7 +2073,7 @@
         </is>
       </c>
       <c r="B9" s="23">
-        <f>SUM(B5:B8)</f>
+        <f>SUM(Rev_Segment1_Y0,Rev_Segment2_Y0,Rev_Segment3_Y0,Rev_Segment4_Y0)</f>
         <v/>
       </c>
       <c r="C9" s="23">
